--- a/data/Map024.xlsx
+++ b/data/Map024.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA372B0-CF75-442F-BE87-7E74C9215A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>ベルーチェ</t>
   </si>
@@ -484,19 +490,314 @@
   </si>
   <si>
     <t>アーコ</t>
+  </si>
+  <si>
+    <t>Start the battle!</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Strategy hints</t>
+  </si>
+  <si>
+    <t>This is an action RPG boss battle.
+Use the A-key to attack your enemies while dodging their attacks.
+Hold the D-key to move while facing one direction.</t>
+  </si>
+  <si>
+    <t>You will lose if your energy or strength reaches 0 from an enemy attack.
+The timing bar will appear during temptation events.</t>
+  </si>
+  <si>
+    <t>Also, when taking energy damage, you will enter a \C[14]Heat State\C[0]
+which will decrease the number of attacks you shoot at one time.
+A ♡ symbol will appear during heat state.</t>
+  </si>
+  <si>
+    <t>Heat state will wear off after walking a certain distance.
+It will also wear off by critically resisting a temptation event.
+Try to stop the timer bar in the red zone.</t>
+  </si>
+  <si>
+    <t>・Learn the enemy patterns
+The enemies have specific attack patterns.
+Learn to avoid them first of all.</t>
+  </si>
+  <si>
+    <t>・Strafe with the D-key
+By facing a fixed direction, it's easier to attack while avoiding.
+Moving backwards while attacking may be effective.</t>
+  </si>
+  <si>
+    <t>・User recovery items and skills
+You can freely use items and skills (Deep Breathing).
+You can brute force the battle by abusing your healing.</t>
+  </si>
+  <si>
+    <t>・Use Easy Action mode
+You can switch ON Easy Action in the Options menu.
+There is no penalty for doing this.</t>
+  </si>
+  <si>
+    <t>See Velvet strategy</t>
+  </si>
+  <si>
+    <t>See Chocolat startegy</t>
+  </si>
+  <si>
+    <t>That's enough</t>
+  </si>
+  <si>
+    <t>I can't do this</t>
+  </si>
+  <si>
+    <t>・Charge
+Velvet will charge a short distance at a faster speed than yours.
+You won't be able to avoid if you're too close. Keep your distance.</t>
+  </si>
+  <si>
+    <t>・Punch
+After dashing a short distance, she throws a short range
+punch at the player. Keep your distance.</t>
+  </si>
+  <si>
+    <t>・Roundhouse Kick
+After rotating, 7 slashes will move in all directions. Move through the
+gap to avoid. There is a distinct sound before the attack comes out.</t>
+  </si>
+  <si>
+    <t>・Show Breasts (Long distance temptation)
+A heart will slowly fly across the screen.
+Do not stare at her boobs.</t>
+  </si>
+  <si>
+    <t>If Chocolat is defeated first, this attack comes out more often.</t>
+  </si>
+  <si>
+    <t>・Dash
+Covers a long distance at the same speed as the player's run.
+Be sure to give yourself space to escape.</t>
+  </si>
+  <si>
+    <t>・Shotgun
+After a loud loading sound, fires some buckshot.
+If you're far away, it will spread too far to hit you.</t>
+  </si>
+  <si>
+    <t>・Machinegun
+After a series of loading sounds, rapidly fires at the player.
+Keep running to avoid it.</t>
+  </si>
+  <si>
+    <t>・Handgun
+Fires 5 times while walking around.
+Move on a slant to avoid.</t>
+  </si>
+  <si>
+    <t>・Scattering Drugs (Long distance temptation)
+Scatters drugs while walking around. They disappear over
+time, or when you enter a temptation event.</t>
+  </si>
+  <si>
+    <t>If the drugs are in your way, you can remove them by stepping
+on them. Occurs more frequently after Velvet is defeated.
+The attack will also become more intense.</t>
+  </si>
+  <si>
+    <t>Steel yourself.</t>
+  </si>
+  <si>
+    <t>This is a last resort if you cannot possibly win this fight.
+You will obtain some insanely powerful equipment.
+This completely breaks the game's balancing.</t>
+  </si>
+  <si>
+    <t>\C[10]Hand it over</t>
+  </si>
+  <si>
+    <t>Never mind</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I caught you♥
+Mmm♥ Smoooch♥ Smooch♥
+Hooora♥ Isn't all this fighting just so silly?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's ok♥
+Just leave everything to me...♥
+Now♥ Submit to me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ufufu♥ You've reached your end♥
+To think you'd climax simply from a kiss...♥
+Hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;My goodness♥ You've gotten so hard♥
+It's all over if I capture you now♥
+You don't want to escape now, do you?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no need to resist.
+Nobody has ever lasted more than 30 seconds
+with their penis gripped in my hand. Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora, and you ejaculated just like that♥
+Hee♥ Are your legs feeling shaky?
+Don't fall over quite yet.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Kuh...!
+Y-you beat me.
+Please have your way with me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I never thought that you'd get this far, \n[1].
+You're so strong...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;But, why not have a bit of sex?
+Hey, \n[1]...
+Let's finish things off with a tight embrace...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You're a succubus hunter...
+You dedicate your life to battling succubi.
+There's no way you'd lose in sex, no? Ufufu♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Look, you're already so hard...♥
+You look like you're about ready to tangle.
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Or did you swell up so big because you 
+want my vagina to squeeze you dry?
+Either way, the choice is yours, \n[1]♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Now, would you like to have sex?
+Or would you prefer for me to love and pamper you?
+Which do you prefer? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\C[10]Shake off the temptation</t>
+  </si>
+  <si>
+    <t>\C[10]Succumb to the temptation</t>
+  </si>
+  <si>
+    <t>\C[10]I want to be pampered</t>
+  </si>
+  <si>
+    <t>\C[10]I want to have sex</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Kuh... So you flee from your hunter's instincts...
+You coward... Hah, hah...
+Ah, no more... My body...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Are you lost?
+You put it in right here♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I gotcha-♥
+Lick lick lick～♥
+Can you fight back against this? Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're so excited♥
+Your face is coated with sticky saliva♥
+Now to do some experiments by touching your penis♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Yesss♥ Pew pew pew-♥
+You ejaculated in the middle of a fight
+As I thought, you were never trying in the first place♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squeeeeze♥
+I caught you in my boobs-♥
+Are you leaning into them-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nhaah♥ Your breath is tickling me♥
+Don't squirm so much♥
+Ahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahh...♥ You ejaculated♥
+That means you can't fight anymore♥
+You don't still wanna fight, do you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Hah...♥ Hah...♥
+This is my last resort...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I don't have the strength left to fight.
+I've been beaten.
+It makes no sense to keep fighting a losing battle.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;But if you put your dick inside me,
+I'll do my best to make you feel good♥
+Fuhihi♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I'm so sorry about everything♥
+Hah♥ Haaah♥
+Will you finish this by having sex with me?</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Once you put it in me, you'll feel so good you
+won't be able to stop cumming♥ Don't you wanna give it a try?
+I'm just a human, so a little bit of sex is ok♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;You've been holding out this entire time♥
+I'd get a good workout bouncing up and down on top of you♥
+Watch my boobs bounce above you as you cum over and over♥</t>
+  </si>
+  <si>
+    <t>\C[10]Push her off</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Just for a little bit♥
+Please just sit still for a little while♥
+Come on♥ Let's do it♥</t>
+  </si>
+  <si>
+    <t>\C[10]Lay still</t>
+  </si>
+  <si>
+    <t>\C[10]I want to put it in</t>
+  </si>
+  <si>
+    <t>\C[10]I want to ejaculate</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Auuuuugh-...!
+You're so mean...!
+I lost...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Time is up♥
+That means you lose♥ Kuhihi♥</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -507,28 +808,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -818,655 +1131,853 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B66" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B100" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B101" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B102" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>